--- a/detailed_channel_info/SHL-1_CAEEL.xlsx
+++ b/detailed_channel_info/SHL-1_CAEEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>CURATOR:</t>
   </si>
   <si>
-    <t>vahidgh</t>
-  </si>
-  <si>
     <t>REFERENCES:</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>https://chopen.herokuapp.com/api/graph_data/4?format=json</t>
+  </si>
+  <si>
+    <t>vahidgh, gopal_sarma</t>
   </si>
 </sst>
 </file>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -624,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -636,10 +636,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -648,10 +648,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -660,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -672,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -696,10 +696,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -708,10 +708,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -720,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2"/>
     </row>
@@ -732,10 +732,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -744,10 +744,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -756,10 +756,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -768,10 +768,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -780,10 +780,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -792,10 +792,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -804,10 +804,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -903,25 +903,25 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2"/>
     </row>
